--- a/books.xlsx
+++ b/books.xlsx
@@ -441,12 +441,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Юлия Асланова</t>
+          <t>Владимир Войнович</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Внеклассная жукология</t>
+          <t>Жизнь и необычайные приключения солдата Ивана Чонкина. Книга 2. Претендент на престол</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -454,12 +454,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Суволь</t>
+          <t>Эдвард Эштон</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Единственный конец злодейки - смерть. Том 2</t>
+          <t>Микки-7</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -467,34 +467,34 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Келли Боуэн</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Квартира в Париже</t>
-        </is>
-      </c>
+          <t>Кукла. Старинная забава в английском вкусе</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Кукла. Старинная забава в английском вкусе</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>Виктория Ледерман</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Василькин Д. Седьмой отряд</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Юлия Линде</t>
+          <t>Бруннер, Столл</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Улица Ручей. Том 2. Отступление</t>
+          <t>Собака. Руководство пользователя. Инструкция по эксплуатации, рекомендации</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -502,12 +502,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Мэдлин Левин</t>
+          <t>Суволь</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Готов или нет? Как подготовить детей к жизни в беспокойном и изменчивом мире</t>
+          <t>Единственный конец злодейки - смерть. Том 2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -515,12 +515,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Мариан Рохас</t>
+          <t>Юлия Линде</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Химия любви и дружбы. Люди-"витаминки", или Как найти гармоничное окружение</t>
+          <t>Улица Ручей. Том 2. Отступление</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -528,12 +528,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Сельма Лагерлеф</t>
+          <t>Юлия Асланова</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Удивительное путешествие Нильса Хольгерссона с дикими гусями по Швеции</t>
+          <t>Внеклассная жукология</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -541,12 +541,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Тамара Михеева</t>
+          <t>Татьяна Мишаткина</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Когда мы остаемся одни</t>
+          <t>Биоэтика. Наука выживания</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -554,12 +554,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Владимир Набоков</t>
+          <t>Иоанна Хмелевская</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Пнин</t>
+          <t>Золотая муха</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -567,12 +567,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Владимир Войнович</t>
+          <t>Патриция Локвуд</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Жизнь и необычайные приключения солдата Ивана Чонкина. Книга 2. Претендент на престол</t>
+          <t>Святой папочка</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -580,12 +580,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Виктория Ледерман</t>
+          <t>Веслав Мысливский</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Василькин Д. Седьмой отряд</t>
+          <t>Трактат о лущении фасоли</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -593,12 +593,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Куинн, Конгдон</t>
+          <t>Михаил Мильчик</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Невероятные женщины, которые изменили искусство и историю</t>
+          <t>Как строили города на Руси</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -606,12 +606,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ольга Токарчук</t>
+          <t>Лита Ли</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Книги Якова</t>
+          <t>Мам, расскажи сказку!</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -619,12 +619,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Михаил Мильчик</t>
+          <t>Татьяна Попова</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Как строили города на Руси</t>
+          <t>Сказочная экономика для детей</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -632,25 +632,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Бруннер, Столл</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Собака. Руководство пользователя. Инструкция по эксплуатации, рекомендации</t>
-        </is>
-      </c>
+          <t>Динозавры. Гигантская книга о гигантах</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>М. Рио</t>
+          <t>Дарья Левина</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Словно мы злодеи</t>
+          <t>Романтика дачи. Традиции прошлого, детские воспоминания и уютная загородная жизнь настоящего</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -658,12 +654,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Мелисса Алькантара</t>
+          <t>Дэвид Конти</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Переворот. Измени свое тело и жизнь к лучшему. Секретный фитнес-план от звездного тренера Голливуда</t>
+          <t>Дон Кавелли и папский престол</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -671,12 +667,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Торо Дель</t>
+          <t>Алена Долецкая</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Кабинет редкостей. Мои зарисовки, коллекции и другие одержимости</t>
+          <t>К столу!</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -684,12 +680,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Анна Бретт</t>
+          <t>Светлана Решенина</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Чарльз Дарвин и его "Происхождение видов"</t>
+          <t>Наруза. Огненная пряха</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -697,12 +693,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Дарья Левина</t>
+          <t>Д. Худ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Романтика дачи. Традиции прошлого, детские воспоминания и уютная загородная жизнь настоящего</t>
+          <t>Кровавое ранчо</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -710,12 +706,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Татьяна Мишаткина</t>
+          <t>Дани Редд</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Биоэтика. Наука выживания</t>
+          <t>Арктический клуб любителей карри</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -723,12 +719,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Светлана Решенина</t>
+          <t>Мэдлин Левин</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Наруза. Огненная пряха</t>
+          <t>Готов или нет? Как подготовить детей к жизни в беспокойном и изменчивом мире</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -736,12 +732,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Иоанна Хмелевская</t>
+          <t>Куинн, Конгдон</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Золотая муха</t>
+          <t>Невероятные женщины, которые изменили искусство и историю</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -749,12 +745,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Джон Апдайк</t>
+          <t>Исабель Альенде</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Иствикские ведьмы</t>
+          <t>Виолета</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -762,12 +758,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Д. Худ</t>
+          <t>Михаил Гаспаров</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Кровавое ранчо</t>
+          <t>Капитолийская волчица. Рим до цезарей</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -775,12 +771,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Михаил Гаспаров</t>
+          <t>Андрей Князев</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Капитолийская волчица. Рим до цезарей</t>
+          <t>Король и Шут. Старая книга</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -788,12 +784,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Пепперштейн, Ануфриев</t>
+          <t>Старк Холборн</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Мифогенная любовь каст в комиксах</t>
+          <t>Десятка Лоу</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -801,12 +797,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Веслав Мысливский</t>
+          <t>Иоанна Хмелевская</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Трактат о лущении фасоли</t>
+          <t>ТТ, или Трудный труп</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -814,12 +810,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Лита Ли</t>
+          <t>Йохан Хейзинга</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Мам, расскажи сказку!</t>
+          <t>Культура Нидерландов в XVII веке</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -827,612 +823,612 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Джордж Оруэлл</t>
+          <t>Энн Фрейзер</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>Найди меня</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>384 ₽</t>
+          <t>607 ₽</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Сэйс Нотебоом</t>
+          <t>Дэвид Конти</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Венеция. Лев, город и вода</t>
+          <t>Дон Кавелли и мертвый кардинал</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1 024 ₽</t>
+          <t>510 ₽</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Анна Франк</t>
+          <t>Иоанна Хмелевская</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Убежище. Дневник в письмах. 12 июня 1942 года - 1 августа 1944 года</t>
+          <t>Киллер в сиреневой юбке</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>624 ₽</t>
+          <t>440 ₽</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Жюль Сюпервьель</t>
+          <t>Иоанна Хмелевская</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Похититель детей</t>
+          <t>Роковые марки</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>360 ₽</t>
+          <t>510 ₽</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Джон Апдайк</t>
+          <t>Иоанна Хмелевская</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Кентавр</t>
+          <t>Все красное</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>512 ₽</t>
+          <t>528 ₽</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Джеймс Джойс</t>
+          <t>Иоанна Хмелевская</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Улисс</t>
+          <t>Версия про запас</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1 376 ₽</t>
+          <t>440 ₽</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Паскаль Киньяр</t>
+          <t>Иоанна Хмелевская</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Все утра мира</t>
+          <t>Что сказал покойник</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>368 ₽</t>
+          <t>528 ₽</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Шекспир, Китс</t>
+          <t>Иоанна Хмелевская</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Английский сонет</t>
+          <t>Подозреваются все</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>376 ₽</t>
+          <t>475 ₽</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Лин Ульман</t>
+          <t>Иоанна Хмелевская</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Благословенное дитя</t>
+          <t>Колодцы предков</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>504 ₽</t>
+          <t>440 ₽</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Сигрид Унсет</t>
+          <t>Иоанна Хмелевская</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Улав, сын Аудуна из Хествикена</t>
+          <t>Две головы и одна нога</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>824 ₽</t>
+          <t>484 ₽</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Даниель Дефо</t>
+          <t>Джо Спейн</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Дальнейшие приключения Робинзона Крузо</t>
+          <t>Кто убил Оливию Коллинз?</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>472 ₽</t>
+          <t>713 ₽</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Паскаль Киньяр</t>
+          <t>Иоанна Хмелевская</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Лестницы Шамбора</t>
+          <t>Проклятое наследство</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>544 ₽</t>
+          <t>484 ₽</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Катаев, Аксенов</t>
+          <t>Иоанна Хмелевская</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Смеется тот, кто смеется. Коллективный роман</t>
+          <t>Бега</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>304 ₽</t>
+          <t>458 ₽</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Кир Булычев</t>
+          <t>Иоанна Хмелевская</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Любимец</t>
+          <t>Свистопляска</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>472 ₽</t>
+          <t>510 ₽</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Роберт Фрост</t>
+          <t>Иоанна Хмелевская</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Стихотворения</t>
+          <t>Флоренция, дочь Дьявола</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>464 ₽</t>
+          <t>449 ₽</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Ильф, Петров</t>
+          <t>Иоанна Хмелевская</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Одноэтажная Америка</t>
+          <t>Интрижка с двойным дном</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>544 ₽</t>
+          <t>510 ₽</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>И. Грекова</t>
+          <t>Иоанна Хмелевская</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Свежо предание</t>
+          <t>Крокодил из страны Шарлотты</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>440 ₽</t>
+          <t>528 ₽</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Шарль Бодлер</t>
+          <t>Иоанна Хмелевская</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Цветы зла</t>
+          <t>Стечение обстоятельств</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>352 ₽</t>
+          <t>484 ₽</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Сэмюэль Беккет</t>
+          <t>Джереми Бейтс</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>В ожидании Годо</t>
+          <t>Лес самоубийц</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>544 ₽</t>
+          <t>722 ₽</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Марк Твен</t>
+          <t>Данила Монтанари</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Режьте, братцы, режьте. Сборник рассказов</t>
+          <t>У ночи много секретов</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>544 ₽</t>
+          <t>634 ₽</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Исаак Зингер</t>
+          <t>Натали Барелли</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Семья Мускат</t>
+          <t>А потом он убил меня</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>848 ₽</t>
+          <t>651 ₽</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Джеймс Джойс</t>
+          <t>Иоанна Хмелевская</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Дублинцы</t>
+          <t>Тайна</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>424 ₽</t>
+          <t>493 ₽</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Шекспир, Уайетт</t>
+          <t>Джереми Бейтс</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Избранные страницы английской поэзии</t>
+          <t>Остров Кукол</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>472 ₽</t>
+          <t>739 ₽</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Синклер Льюис</t>
+          <t>Иоанна Хмелевская</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Главная улица</t>
+          <t>Опасность с голубыми глазами</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>552 ₽</t>
+          <t>528 ₽</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Фрэнсис Фицджеральд</t>
+          <t>Данила Монтанари</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Великий Гэтсби</t>
+          <t>Овация сенатору</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>296 ₽</t>
+          <t>598 ₽</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Джон Бэнвилл</t>
+          <t>Иоанна Хмелевская</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Море</t>
+          <t>Бесконечная шайка</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>456 ₽</t>
+          <t>484 ₽</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Карел Чапек</t>
+          <t>Рада Джонс</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Человек, который умел летать</t>
+          <t>Передозировка</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>624 ₽</t>
+          <t>563 ₽</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Марк Твен</t>
+          <t>Натали Барелли</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Простаки за границей, или Путь новых паломников</t>
+          <t>И тогда я ее убила</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>624 ₽</t>
+          <t>704 ₽</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Кир Булычев</t>
+          <t>Данила Монтанари</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Тайна Урулгана</t>
+          <t>Идущие на смерть приветствуют тебя!</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>368 ₽</t>
+          <t>616 ₽</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Гофф Ле</t>
+          <t>Робин Кук</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Герои и чудеса Средних веков</t>
+          <t>Дурной ген</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>424 ₽</t>
+          <t>625 ₽</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Джозефина Тэй</t>
+          <t>Александр Дюма</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Дочь времени</t>
+          <t>Госпожа де Шамбле</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>234 ₽</t>
+          <t>988 ₽</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Софья Прокофьева</t>
+          <t>Одри Пенн</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Неизвестный с хвостом</t>
+          <t>Поцелуй в ладошке</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>509 ₽</t>
+          <t>566 ₽</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Наталья Ремиш</t>
+          <t>Джозефина Тэй</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Моя Лола. Записки мать-и-мачехи</t>
+          <t>Дочь времени</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>857 ₽</t>
+          <t>234 ₽</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Тур Хейердал</t>
+          <t>Евгений Шварц</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Экспедиция "Кон-Тики"</t>
+          <t>Золушка</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>3 360 ₽</t>
+          <t>1 352 ₽</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Хазин, Щеглов</t>
+          <t>Внеклассное чтение. 1</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Кризис и Власть. Том 2. Люди Власти</t>
+          <t>4 классы. Хрестоматия</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1 252 ₽</t>
+          <t>246 ₽</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Антонина Крейн</t>
+          <t>Тамара Скиба</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Улыбнись мне, Артур Эдинброг</t>
+          <t>Энциклопедия для детей от 6 до 12 лет</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>690 ₽</t>
+          <t>602 ₽</t>
         </is>
       </c>
     </row>
@@ -1441,259 +1437,267 @@
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
-          <t>272 р.</t>
+          <t>709 р.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Рик Риордан</t>
+          <t>Dick King</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Наследники богов. Книга 3. Тень змея</t>
+          <t>Smith - The Sheep-pig</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>583 ₽</t>
+          <t>1 360 ₽</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Марина Серова</t>
+          <t>Роланд Лазенби</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Спасти нельзя сдаться</t>
+          <t>Коби Брайант. Философия игры и жизни легендарной Черной Мамбы</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>219 ₽</t>
+          <t>1 268 ₽</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Маргарет Астер</t>
+          <t>Тим Гровер</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Закон Благодарности. Маг</t>
+          <t>Быть победителем. Беспощадная гонка к величию</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>657 ₽</t>
+          <t>819 ₽</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Ирина Фуллер</t>
+          <t>Diego Maradona</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Эксплеты. Лебединая башня</t>
+          <t>El Diego. The Autobiography</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>480 ₽</t>
+          <t>2 554 ₽</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Джоанн Харрис</t>
+          <t>David Lawrence</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Синяя соляная тропа</t>
+          <t>Lady Chatterleys Lover</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>667 ₽</t>
+          <t>1 474 ₽</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Вадим Панов</t>
+          <t>George Monbiot</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Симулятор безумия. Как Четвертая промышленная революция превратит Homo Sapiens в Homo Servus?</t>
+          <t>Feral. Rewilding the Land, Sea and Human Life</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>710 ₽</t>
+          <t>2 185 ₽</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Лев Толстой</t>
+          <t>Hamel de</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Кавказский пленник. Хаджи-Мурат</t>
+          <t>Meetings with Remarkable Manuscripts</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>230 ₽</t>
+          <t>2 766 ₽</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Тисато Абэ</t>
+          <t>Daniel Lieberman</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Ворон из пустого гроба</t>
+          <t>Exercised. The Science of Physical Activity, Rest and Health</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>786 ₽</t>
+          <t>2 029 ₽</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Узорова, Нефёдова</t>
+          <t>Ryunosuke Koike</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Полный курс математики. 3 клас. Все типы заданий, все виды задач, примеров, уравнений, неравенств</t>
+          <t>The Practice of Not Thinking. A Guide to Mindful Living</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>329 ₽</t>
+          <t>2 029 ₽</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Елена Аринина</t>
+          <t>Tim Moore</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Быть взрослым. Создай порядок и баланс в душе. #осознанное взросление</t>
+          <t>Vuelta Skelter. Riding the Remarkable 1941 Tour of Spain</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>623 ₽</t>
+          <t>1 873 ₽</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Коты Эрмитажа. Альбом 100 наклеек (Винсент)</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr"/>
+          <t>Isabel Kaplan</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Not Safe for Work</t>
+        </is>
+      </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>215 ₽</t>
+          <t>3 136 ₽</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Коты Эрмитажа. Альбом 100 наклеек (Клеопатра)</t>
+          <t>Peppa's Dragon Adventure</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
-          <t>215 ₽</t>
+          <t>1 290 ₽</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Коты Эрмитажа. Большой альбом 200 наклеек (Винсент и Клеопатра)</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr"/>
+          <t>Emma Hornby</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>A Daughter’s War</t>
+        </is>
+      </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>248 ₽</t>
+          <t>1 587 ₽</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Коты Эрмитажа. Весёлые задания (с наклейками)</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr"/>
+          <t>McChrystal, Butrico</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Risk. A User’s Guide</t>
+        </is>
+      </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>260 ₽</t>
+          <t>2 029 ₽</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Коты Эрмитажа. Игры и лабиринты (с наклейками)</t>
+          <t>Video Games. Level 4</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
-          <t>260 ₽</t>
+          <t>851 ₽</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Анна Маслова</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Коты Эрмитажа. Официальная новеллизация</t>
-        </is>
-      </c>
+          <t>Bing Bong Song and Off to the Shop. Level 1 Book 10</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
-          <t>394 ₽</t>
+          <t>1 190 ₽</t>
         </is>
       </c>
     </row>
@@ -1702,739 +1706,699 @@
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
-          <t>964 р.</t>
+          <t>490 р.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Коты Эрмитажа. Раскраска (Винсент и Морис)</t>
+          <t>Vet Rescue! Level 4 Book 15</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
-          <t>124 ₽</t>
+          <t>1 190 ₽</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Коты Эрмитажа. Раскраска (Защитники искусства)</t>
+          <t>Peppa’s Rainbow Surprise. Level 4 Book 19</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
-          <t>124 ₽</t>
+          <t>1 190 ₽</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Коты Эрмитажа. Раскраска (Морис и Клеопатра)</t>
+          <t>The Beach Day. Level 4 Book 4</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
-          <t>124 ₽</t>
+          <t>1 190 ₽</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Коты Эрмитажа. Раскраска (Пушистые хранители)</t>
+          <t>Number Fun! Level 5 Book 9</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
-          <t>124 ₽</t>
+          <t>1 105 ₽</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Стиг Бенгмарк</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Выбирай здоровье. Как не стать хроническим больным. Уникальная шведская система</t>
-        </is>
-      </c>
+          <t>Ten Tickets. Level 2 Book 8</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
-          <t>607 ₽</t>
+          <t>1 105 ₽</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Дмитрий Емец</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Таня Гроттер и пенсне Ноя</t>
-        </is>
-      </c>
+          <t>Fun at the Pool. Level 2 Book 9</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
-          <t>540 ₽</t>
+          <t>1 105 ₽</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Михаил Лермонтов</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Герой нашего времени</t>
-        </is>
-      </c>
+          <t>Grab the Hat! Level 3 Book 1</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
-          <t>165 ₽</t>
+          <t>1 105 ₽</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Александр Пушкин</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Пиковая дама</t>
-        </is>
-      </c>
+          <t>Star Spotters. Level 3 Book 10</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
-          <t>169 ₽</t>
+          <t>1 190 ₽</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Августо Марани</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Эротическое таро «Запретный плод».78 карт + инструкция</t>
-        </is>
-      </c>
+          <t>The Blocked Road. Level 3 Book 4</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
-          <t>1 356 ₽</t>
+          <t>1 105 ₽</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Инесса Борн</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Твой Магический переход. Второе рождение</t>
-        </is>
-      </c>
+          <t>The Traffic Jam Picnic. Level 3 Book 5</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr">
         <is>
-          <t>577 ₽</t>
+          <t>1 105 ₽</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Наталья Румак</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Все правила японского языка в схемах и таблицах</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>467 ₽</t>
-        </is>
-      </c>
+      <c r="A96" t="inlineStr"/>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Ирина Барановская</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Большая энциклопедия о кошках и собаках</t>
-        </is>
-      </c>
+          <t>The Best Lunch. Level 3 Book 7</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
-          <t>899 ₽</t>
+          <t>1 190 ₽</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Туве Янссон</t>
+          <t>Eric Carle</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Муми-тролли. Большая книга для маленьких</t>
+          <t>The Very Hungry Caterpillar</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>777 ₽</t>
+          <t>1 290 ₽</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Валентина Дмитриева</t>
+          <t>H Bissinger</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Рисуем за 30 секунд всё что угодно из простых фигур</t>
+          <t>Friday Night Lights. A Town, a Team, and a Dream</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>124 ₽</t>
+          <t>2 029 ₽</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Андре Алексис</t>
+          <t>James Patterson</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Пятнадцать псов</t>
+          <t>Cross Fire</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>606 ₽</t>
+          <t>1 659 ₽</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Екатерина Вильмонт</t>
+          <t>Richard Askwith</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Зюзюка, или как важно быть рыжей</t>
+          <t>Running Free. A Runner’s Journey Back to Nature</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>455 ₽</t>
+          <t>1 985 ₽</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Екатерина Вильмонт</t>
+          <t>Mark Ovenden</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Зюзюка, или как важно быть рыжей</t>
+          <t>Transit Maps of the World. Every Urban Train Map on Earth</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>435 ₽</t>
+          <t>3 975 ₽</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Анна Матвеева</t>
+          <t>Jo Nesbo</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Катя едет в Сочи. И другие истории о двойниках</t>
+          <t>Midnight  Sun</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>259 ₽</t>
+          <t>1 843 ₽</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Сергей Минаев</t>
+          <t>Jo Nesbo</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>The Тёлки. Два года спустя, или Videotы</t>
+          <t>Midnight  Sun</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>435 ₽</t>
+          <t>1 659 ₽</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Сергей Минаев</t>
+          <t>Shusaku Endo</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Москва, я не люблю тебя</t>
+          <t>The Samurai</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>402 ₽</t>
+          <t>1 701 ₽</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Андрей Посняков</t>
+          <t>Slavoj Zizek</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Вещий князь</t>
+          <t>The Courage of Hopelessness. Chronicles of a Year of Acting Dangerously</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>816 ₽</t>
+          <t>1 701 ₽</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Алекс Найт</t>
+          <t>David Conn</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Моя рогатая практика</t>
+          <t>The Fall of the House of FIFA</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>387 ₽</t>
+          <t>1 873 ₽</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Анна Йоханнсен</t>
+          <t>Niall Ferguson</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Убийство на острове Фёр</t>
+          <t>The Ascent of Money. A Financial History of the World</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>470 ₽</t>
+          <t>2 979 ₽</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Евгения Кретова</t>
+          <t>A. Grayling</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>В ритме страха</t>
+          <t>The History of Philosophy</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>387 ₽</t>
+          <t>2 766 ₽</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Анна Штерн</t>
+          <t>Lea Ypi</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Закон семьи</t>
+          <t>Free. Coming of Age at the End of History</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>470 ₽</t>
+          <t>1 843 ₽</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Флавиус Арделян</t>
+          <t>Roald Dahl</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Миазмы: Скырба святого с красной веревкой. Пузырь Мира и Не'Мира</t>
+          <t>The Twits</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>538 ₽</t>
+          <t>1 360 ₽</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Шишкина, Инглиш</t>
+          <t>Buchi Emecheta</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Поясни за Ренессанс. Гид по искусству Возрождения</t>
+          <t>The Joys of  Motherhood</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>641 ₽</t>
+          <t>1 985 ₽</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Олдос Хаксли</t>
+          <t>Jill Murphy</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>О дивный новый мир</t>
+          <t>The Worst  Witch</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>232 ₽</t>
+          <t>1 587 ₽</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Франциска Вудворт</t>
+          <t>Vaclav Smil</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Как приручить кентавра, или Дневник моего сна</t>
+          <t>How the World Really Works. A Scientist’s Guide to Our Past, Present and Future</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>387 ₽</t>
+          <t>2 185 ₽</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Борис Акунин</t>
+          <t>Marcel Proust</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Смерть на брудершафт. Мука разбитого сердца</t>
+          <t>Remembrance of Things Past. Volume 3</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>538 ₽</t>
+          <t>2 213 ₽</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Ольга Крылова</t>
+          <t>Ha</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Дошкольник. Я узнаю окружающий мир. Рабочая тетрадь. 7 лет. ФГОС ДО</t>
+          <t>Joon Chang - Edible Economics. A Hungry Economist Explains the World</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>179 ₽</t>
+          <t>3 407 ₽</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Валентин Постников</t>
+          <t>Virginia Woolf</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Кастрюля с пятёрками</t>
+          <t>Street Haunting</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>323 ₽</t>
+          <t>1 701 ₽</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Кэролин О`Нил</t>
+          <t>Oscar Wilde</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Дочери мертвой империи</t>
+          <t>The Star-Child</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>886 ₽</t>
+          <t>1 701 ₽</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Мария Лунева</t>
+          <t>Truman Capote</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Мигуми</t>
+          <t>Breakfast at Tiffany's</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>1 106 ₽</t>
+          <t>1 701 ₽</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Кейт Йормак</t>
+          <t>Claire Tomalin</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Добро пожаловать в Мэллори Фог</t>
+          <t>The Young H.G. Wells. Changing the World</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>1 856 ₽</t>
+          <t>1 873 ₽</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Морвейн Ветер</t>
+          <t>Roald Dahl</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Танцуя среди звёзд. Летопись 2я. Конец вечности</t>
+          <t>Charlie and the Great Glass Elevator</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>1 029 ₽</t>
+          <t>1 587 ₽</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Кира Тигрис</t>
+          <t>Roald Dahl</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ЧарФак. Факультет чар</t>
+          <t>Esio Trot</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>1 287 ₽</t>
+          <t>1 587 ₽</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Марина Эльденберт</t>
+          <t>Roald Dahl</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Луна Верховного</t>
+          <t>The Magic Finger</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>1 068 ₽</t>
+          <t>1 474 ₽</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Морвейн Ветер</t>
+          <t>Jen DeLuca</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Танцуя среди звёзд. Летопись 3. Затерянные во времени</t>
+          <t>Well Met</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>934 ₽</t>
+          <t>1 659 ₽</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Вадим Худяков</t>
+          <t>Harry Prince</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Русские мореплаватели - первооткрыватели XVIII-XIX веков</t>
+          <t>Spare</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>468 ₽</t>
+          <t>4 904 ₽</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Екатерина Ёлгина</t>
+          <t>Val Wood</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Аквариус</t>
+          <t>Winter’s Daughter</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>665 ₽</t>
+          <t>1 474 ₽</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Екатерина Каблукова</t>
+          <t>Нацумэ Сосэки</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Принцесса по приказу</t>
+          <t>Ваш покорный слуга кот</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>1 387 ₽</t>
+          <t>299 ₽</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Нина Линдт</t>
+          <t>Кора Рейли</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Хозяин времени. Кровавый принц</t>
+          <t>Вознесенная грехом. Последний ход принцессы</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>1 268 ₽</t>
+          <t>654 ₽</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Татьяна Михаль</t>
+          <t>Алексей Осипов</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Приглашение к драконам, или Попаданка по контракту</t>
+          <t>Зачем Бог</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>1 145 ₽</t>
+          <t>564 ₽</t>
         </is>
       </c>
     </row>
